--- a/Documentation/Scrum/Sprint1Burndown.xlsx
+++ b/Documentation/Scrum/Sprint1Burndown.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
   <workbookPr updateLinks="always"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Ali\Documents\cst247\Documentation\Scrum\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Caleb Ljunggren\Documents\School (GCU)\CST-247\Bitbucket-GitHub\Documentation\Scrum\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Burn Down Chart" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="48">
   <si>
     <t>Task</t>
   </si>
@@ -174,12 +174,15 @@
   </si>
   <si>
     <t>Identify Risks</t>
+  </si>
+  <si>
+    <t>Caleb Ljunggren</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1062,11 +1065,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1332,7 +1335,7 @@
         <v>41</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="F8" s="4">
         <v>1</v>
@@ -1378,7 +1381,7 @@
         <v>42</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="F9" s="4">
         <v>0</v>
@@ -2166,7 +2169,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2317,59 +2320,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <DocumentBusinessValueTaxHTField0 xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Normal</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">581d4866-74cc-43f1-bef1-bb304cbfeaa5</TermId>
-        </TermInfo>
-      </Terms>
-    </DocumentBusinessValueTaxHTField0>
-    <DocumentComments xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <DocumentDepartmentTaxHTField0 xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Academic Program and Course Development</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">59abafec-cbf5-4238-a796-a3b74278f4db</TermId>
-        </TermInfo>
-      </Terms>
-    </DocumentDepartmentTaxHTField0>
-    <DocumentCategoryTaxHTField0 xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </DocumentCategoryTaxHTField0>
-    <DocumentTypeTaxHTField0 xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </DocumentTypeTaxHTField0>
-    <TaxKeywordTaxHTField xmlns="30a82cfc-8d0b-455e-b705-4035c60ff9fd">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-    <CourseVersion xmlns="30a82cfc-8d0b-455e-b705-4035c60ff9fd" xsi:nil="true"/>
-    <SecurityClassificationTaxHTField0 xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Internal</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">98311b30-b9e9-4d4f-9f64-0688c0d4a234</TermId>
-        </TermInfo>
-      </Terms>
-    </SecurityClassificationTaxHTField0>
-    <TaxCatchAll xmlns="30a82cfc-8d0b-455e-b705-4035c60ff9fd">
-      <Value>3</Value>
-      <Value>2</Value>
-      <Value>1</Value>
-    </TaxCatchAll>
-    <DocumentSubjectTaxHTField0 xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </DocumentSubjectTaxHTField0>
-    <DocumentStatusTaxHTField0 xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </DocumentStatusTaxHTField0>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Course Development" ma:contentTypeID="0x010100A30BC5E90BED914E81F4B67CDEADBEEF0072B4D5296E9CCD41A4B955E8BC4A98B900B6D41DF35BCF664B888FA24C3105B583" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new Course Development document." ma:contentTypeScope="" ma:versionID="9dd9ed6e3bbe7b4f5b00c4ab3cb49488">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="30a82cfc-8d0b-455e-b705-4035c60ff9fd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7f302115a5f8a1b15560b600ae7cd187" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -2598,9 +2548,66 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <DocumentBusinessValueTaxHTField0 xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Normal</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">581d4866-74cc-43f1-bef1-bb304cbfeaa5</TermId>
+        </TermInfo>
+      </Terms>
+    </DocumentBusinessValueTaxHTField0>
+    <DocumentComments xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <DocumentDepartmentTaxHTField0 xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Academic Program and Course Development</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">59abafec-cbf5-4238-a796-a3b74278f4db</TermId>
+        </TermInfo>
+      </Terms>
+    </DocumentDepartmentTaxHTField0>
+    <DocumentCategoryTaxHTField0 xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </DocumentCategoryTaxHTField0>
+    <DocumentTypeTaxHTField0 xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </DocumentTypeTaxHTField0>
+    <TaxKeywordTaxHTField xmlns="30a82cfc-8d0b-455e-b705-4035c60ff9fd">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+    <CourseVersion xmlns="30a82cfc-8d0b-455e-b705-4035c60ff9fd" xsi:nil="true"/>
+    <SecurityClassificationTaxHTField0 xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Internal</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">98311b30-b9e9-4d4f-9f64-0688c0d4a234</TermId>
+        </TermInfo>
+      </Terms>
+    </SecurityClassificationTaxHTField0>
+    <TaxCatchAll xmlns="30a82cfc-8d0b-455e-b705-4035c60ff9fd">
+      <Value>3</Value>
+      <Value>2</Value>
+      <Value>1</Value>
+    </TaxCatchAll>
+    <DocumentSubjectTaxHTField0 xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </DocumentSubjectTaxHTField0>
+    <DocumentStatusTaxHTField0 xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </DocumentStatusTaxHTField0>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events"/>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2615,31 +2622,10 @@
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events"/>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90C1BE12-9AF4-4D82-8933-6D42A4A8E2C9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="30a82cfc-8d0b-455e-b705-4035c60ff9fd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{26BAEAB1-84F8-4623-9116-5B777FA60CDF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2658,10 +2644,27 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90C1BE12-9AF4-4D82-8933-6D42A4A8E2C9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="30a82cfc-8d0b-455e-b705-4035c60ff9fd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D14C1044-F523-4937-BF47-727729F19EA1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D6E300D-687F-49DD-9C99-AC5EA1BE3BF7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2675,9 +2678,9 @@
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D6E300D-687F-49DD-9C99-AC5EA1BE3BF7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D14C1044-F523-4937-BF47-727729F19EA1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>